--- a/DEV/Microservicios-User-app/bugss_MICROSERVICIOS-USER-APP.xlsx
+++ b/DEV/Microservicios-User-app/bugss_MICROSERVICIOS-USER-APP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Escritorio\DOCUMENTOS\DEV\Microservicios-User-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B70B39F-6918-437E-AC48-B0F05F4174A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7E7B31-D182-41CB-AEB2-661B394DAFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2785E624-6C72-4AA6-90CE-DF72695E530E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="106">
   <si>
     <t>GRUPO</t>
   </si>
@@ -60,41 +60,7 @@
     <t>DELETE</t>
   </si>
   <si>
-    <t>commissions-promoter-prime-controller</t>
-  </si>
-  <si>
-    <t>Commissions-promoter-prime/subscription-type</t>
-  </si>
-  <si>
-    <t>Commissions-
-promoter-prime</t>
-  </si>
-  <si>
-    <t>Plan-all-detail</t>
-  </si>
-  <si>
-    <t>Plan-all-detail-controller</t>
-  </si>
-  <si>
-    <t>plan-all-detail</t>
-  </si>
-  <si>
-    <t>Plan-pricing</t>
-  </si>
-  <si>
-    <t>Plan-pricing-controller</t>
-  </si>
-  <si>
     <t>POST</t>
-  </si>
-  <si>
-    <t>plan-pricing/create</t>
-  </si>
-  <si>
-    <t>plan-pricing/calculate-prorated-price</t>
-  </si>
-  <si>
-    <t>FALLO EL  API EN POSTMAN ERROR 500</t>
   </si>
   <si>
     <t>Plan-Restriction</t>
@@ -283,13 +249,6 @@
     <t>PROBAR CON ROSSLEMLL</t>
   </si>
   <si>
-    <t>problemas de codigo</t>
-  </si>
-  <si>
-    <t>EXITOSO EN POSTMA PERO 
-PERO NO ENCUENTRO EN LA BD LA TABLA se ve tabla plan</t>
-  </si>
-  <si>
     <t>OBSERVACION USER-APP /BUGS</t>
   </si>
   <si>
@@ -345,6 +304,57 @@
   </si>
   <si>
     <t>api/auth/create-verification-code</t>
+  </si>
+  <si>
+    <t>Complaints-book</t>
+  </si>
+  <si>
+    <t>complaints/finbycodecomplaints/{code}</t>
+  </si>
+  <si>
+    <t>complaints-book-controller</t>
+  </si>
+  <si>
+    <t>complaints/create</t>
+  </si>
+  <si>
+    <t>FALLO EL API EN POSTMAN ERROR 499</t>
+  </si>
+  <si>
+    <t>complaints/respondingclaim</t>
+  </si>
+  <si>
+    <t>Country-commissions</t>
+  </si>
+  <si>
+    <t>Country-commissions-controller</t>
+  </si>
+  <si>
+    <t>api/country-commissions/create</t>
+  </si>
+  <si>
+    <t>FALLO EL API POSTMAN ERROR 500</t>
+  </si>
+  <si>
+    <t>cash-band/findbyuserid/{userid}</t>
+  </si>
+  <si>
+    <t>Keola-cash-bank-controller</t>
+  </si>
+  <si>
+    <t>Keola-cash-band</t>
+  </si>
+  <si>
+    <t>cash-band/findgeneralbyuserid/{userid}</t>
+  </si>
+  <si>
+    <t>cash-band/assing-points-lotery</t>
+  </si>
+  <si>
+    <t>cash-band/assing-points-regular</t>
+  </si>
+  <si>
+    <t>FALLO EL  API EN POSTMAN ERROR 404</t>
   </si>
 </sst>
 </file>
@@ -521,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -589,6 +599,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -599,6 +615,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -616,17 +641,14 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58EED25-7273-4055-B1C5-E5C25188C98C}">
-  <dimension ref="B2:G45"/>
+  <dimension ref="B2:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,13 +980,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -985,669 +1007,730 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
-        <v>84</v>
+      <c r="B4" s="29" t="s">
+        <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="34"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="22" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="30"/>
+      <c r="C6" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="30"/>
+      <c r="C7" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="30"/>
+      <c r="C8" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="30"/>
+      <c r="C9" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="30"/>
+      <c r="C10" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="30"/>
+      <c r="C11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="30"/>
+      <c r="C12" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="31"/>
+      <c r="C13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F13" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="37" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="34"/>
-      <c r="C6" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="34"/>
-      <c r="C7" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="34"/>
-      <c r="C8" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="34"/>
-      <c r="C9" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="34"/>
-      <c r="C10" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="34"/>
-      <c r="C11" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="34"/>
-      <c r="C12" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
-      <c r="C13" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="38"/>
+      <c r="C15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="39"/>
+      <c r="C16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="26"/>
+      <c r="C19" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="26"/>
+      <c r="C20" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="26"/>
+      <c r="C21" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
+      <c r="C22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="F22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
-      <c r="C17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="25"/>
-      <c r="C19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="25"/>
-      <c r="C20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="25"/>
-      <c r="C21" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="25"/>
-      <c r="C22" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="25"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="25"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>71</v>
+        <v>14</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="25"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="25"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>73</v>
+        <v>16</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="25"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="27"/>
+      <c r="C28" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="27"/>
+      <c r="C29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="27"/>
+      <c r="C30" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="27"/>
+      <c r="C31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="28"/>
+      <c r="C33" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="28"/>
+      <c r="C34" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B35" s="28"/>
+      <c r="C35" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B36" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="26" t="s">
+      <c r="F36" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="15" t="s">
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="35"/>
+      <c r="C37" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="F37" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="35"/>
+      <c r="C38" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F38" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="35"/>
+      <c r="C39" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="26"/>
-      <c r="C29" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="15" t="s">
+      <c r="F39" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="35"/>
+      <c r="C40" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="36"/>
+      <c r="C42" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="32"/>
+      <c r="C44" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B45" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="34"/>
+      <c r="C46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="26"/>
-      <c r="C30" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="15" t="s">
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="34"/>
+      <c r="C48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="26"/>
-      <c r="C31" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="30"/>
-      <c r="C33" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="30"/>
-      <c r="C34" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="30"/>
-      <c r="C35" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="30"/>
-      <c r="C36" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="31"/>
-      <c r="C38" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="27"/>
-      <c r="C40" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B41" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="E48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="34"/>
+      <c r="C49" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="29"/>
-      <c r="C42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="29" t="s">
+      <c r="D49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="29"/>
-      <c r="C44" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="29"/>
-      <c r="C45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>80</v>
+      <c r="F49" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B39:B40"/>
+  <mergeCells count="11">
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B36:B40"/>
     <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B37:B38"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B27"/>
-    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="B32:B35"/>
     <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DEV/Microservicios-User-app/bugss_MICROSERVICIOS-USER-APP.xlsx
+++ b/DEV/Microservicios-User-app/bugss_MICROSERVICIOS-USER-APP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Escritorio\DOCUMENTOS\DEV\Microservicios-User-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7E7B31-D182-41CB-AEB2-661B394DAFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4B6B2E-55AA-46C4-8409-717CBD55A545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2785E624-6C72-4AA6-90CE-DF72695E530E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="83">
   <si>
     <t>GRUPO</t>
   </si>
@@ -57,198 +57,12 @@
     <t>GET</t>
   </si>
   <si>
-    <t>DELETE</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
-    <t>Plan-Restriction</t>
-  </si>
-  <si>
-    <t>Plan-restriction-controller</t>
-  </si>
-  <si>
-    <t>plan-restriction/read</t>
-  </si>
-  <si>
-    <t>FALLO EL API EN POSTMAN ERROR 400</t>
-  </si>
-  <si>
-    <t>plan-restriction/plan-duration/update</t>
-  </si>
-  <si>
-    <t>plan-restriction/plan-duration/bulk-update</t>
-  </si>
-  <si>
-    <t>plan-restriction/max-members/bulk-update</t>
-  </si>
-  <si>
-    <t>plan-restriction/ke-ola-points/bulk-update</t>
-  </si>
-  <si>
-    <t>plan-restriction/ke-ola-market-discount/bulk-update</t>
-  </si>
-  <si>
-    <t>plan-restriction/ke-ola-food-discount/bulk-update</t>
-  </si>
-  <si>
-    <t>plan-restriction/ke-ola-cashback/bulk-update</t>
-  </si>
-  <si>
-    <t>plan-restriction/free-delivery/update</t>
-  </si>
-  <si>
-    <t>plan-restriction/free-delivery/bulk-update</t>
-  </si>
-  <si>
-    <t>Producto</t>
-  </si>
-  <si>
-    <t>Producto-controller</t>
-  </si>
-  <si>
-    <t>product/create</t>
-  </si>
-  <si>
     <t>FALLO EL API EN POSTMAN ERROR 500</t>
   </si>
   <si>
-    <t>product/store/{idStore}</t>
-  </si>
-  <si>
-    <t>product/update</t>
-  </si>
-  <si>
-    <t>product/delete/{id}</t>
-  </si>
-  <si>
-    <t>EJECUTA EL POSTMAN PERO EN LA BD 
-NO ELIMINA</t>
-  </si>
-  <si>
-    <t>Products-Prmotions</t>
-  </si>
-  <si>
-    <t>Products-promotions-controller</t>
-  </si>
-  <si>
-    <t>productspromotions/update</t>
-  </si>
-  <si>
-    <t>EJECUTA EL POSTMAN PERO EN LA BD 
-NO SE MUESTRA</t>
-  </si>
-  <si>
-    <t>productspromotions/find/name</t>
-  </si>
-  <si>
-    <t>productspromotions/findall</t>
-  </si>
-  <si>
-    <t>productspromotions/validate-promotion/{productPromotionId}/{userId}</t>
-  </si>
-  <si>
-    <t>FALLA EL API EN POSTMAN ERROR 400</t>
-  </si>
-  <si>
-    <t>FALLA EL API EN POSTMAN ERROR 500</t>
-  </si>
-  <si>
-    <t>FALLA EL API EN POSTMAN ERROR 501</t>
-  </si>
-  <si>
-    <t>productspromotions/delete/{id}</t>
-  </si>
-  <si>
-    <t>EJECUTA EL POSTMAN PERO NO ELIMINA EN LA BD</t>
-  </si>
-  <si>
-    <t>Product-promotion-plan</t>
-  </si>
-  <si>
-    <t>Product-promotion-plan-controller</t>
-  </si>
-  <si>
-    <t>product-promotion-plan/{idProductPromotion}</t>
-  </si>
-  <si>
-    <t>product-promotion-plan/update-or-create</t>
-  </si>
-  <si>
-    <t>Promotions</t>
-  </si>
-  <si>
-    <t>Promotions-controller</t>
-  </si>
-  <si>
-    <t>promotions/create</t>
-  </si>
-  <si>
-    <t>envia metodo post pero debe ser put ya que actulaliza un id</t>
-  </si>
-  <si>
-    <t>promotions/delete/{id}</t>
-  </si>
-  <si>
-    <t>EJECUTA EL POSTMAN PERO  EN LA BD NO ELIMINA</t>
-  </si>
-  <si>
-    <t>Subscription-Histroy</t>
-  </si>
-  <si>
-    <t>Subscription-History-controller</t>
-  </si>
-  <si>
-    <t>subscription-history/create</t>
-  </si>
-  <si>
-    <t>EJECUTO EL POSTMAN ME SALE ERROR 400 MENSAJE 
-"se supero el maximo de miembros "</t>
-  </si>
-  <si>
-    <t>subscription-history/active-subscription/{userId}</t>
-  </si>
-  <si>
-    <t>Subscription-User</t>
-  </si>
-  <si>
-    <t>FALLO EL API EN POSTMAN ERROR 400 MENSAE "No se encontró la restriction de plan "</t>
-  </si>
-  <si>
-    <t>EJECUTA EL POSTMAN COMO LO VEO EN LA BD</t>
-  </si>
-  <si>
-    <t>EJECUTA 200 PERO EN LA BD NO SE MUESTRA</t>
-  </si>
-  <si>
-    <t>EJECUTA EN POSTMAN 200 PERO EN LA BD NO SE REFLEJA</t>
-  </si>
-  <si>
-    <t>FALLO EL API EN  POSTAM ERROR 404 MENSAJE"No se encontró la restriction de plan "</t>
-  </si>
-  <si>
-    <t>FALLA EL API EN POSTMAN ERROR 500 no hay body</t>
-  </si>
-  <si>
-    <t>Subscription-User-controller</t>
-  </si>
-  <si>
-    <t>EJECUTA INDICA QUE USUARIO NO TIENE SUBSCRIPCION</t>
-  </si>
-  <si>
-    <t>subscription-user/list-members</t>
-  </si>
-  <si>
-    <t>subscription-user/add-member</t>
-  </si>
-  <si>
-    <t>subscription-user/remove-member</t>
-  </si>
-  <si>
-    <t>PROBAR CON ROSSLEMLL</t>
-  </si>
-  <si>
     <t>OBSERVACION USER-APP /BUGS</t>
   </si>
   <si>
@@ -355,6 +169,121 @@
   </si>
   <si>
     <t>FALLO EL  API EN POSTMAN ERROR 404</t>
+  </si>
+  <si>
+    <t>Kpay-movements-controller</t>
+  </si>
+  <si>
+    <t>Kpay-movements</t>
+  </si>
+  <si>
+    <t>kpay-movements/mount-consumed-month/{monthnumber}</t>
+  </si>
+  <si>
+    <t>TODO ESTA CORRECTO COMO CALCULO TOTAL CONSUMIDO POR MES</t>
+  </si>
+  <si>
+    <t>Purchase-commissions-controller</t>
+  </si>
+  <si>
+    <t>Purchase-commissions</t>
+  </si>
+  <si>
+    <t>api/purchase-commissions/update</t>
+  </si>
+  <si>
+    <t>Security-question</t>
+  </si>
+  <si>
+    <t>Security-question-controller</t>
+  </si>
+  <si>
+    <t>api/question/get</t>
+  </si>
+  <si>
+    <t>FALLO EL API ERROR 500</t>
+  </si>
+  <si>
+    <t>api/question/answer</t>
+  </si>
+  <si>
+    <t>FALLA EL API EN POSTMAN ERROR 404</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>User-controller</t>
+  </si>
+  <si>
+    <t>api/user/report</t>
+  </si>
+  <si>
+    <t>api/user/list-paginated-role-filtered</t>
+  </si>
+  <si>
+    <t>api/user/find</t>
+  </si>
+  <si>
+    <t>api/user/finduserbycountry</t>
+  </si>
+  <si>
+    <t>api/user/finduserbyIds</t>
+  </si>
+  <si>
+    <t>api/user/find/{id}</t>
+  </si>
+  <si>
+    <t>api/user/count-users</t>
+  </si>
+  <si>
+    <t>api/user/count-inivitation-filtered/{iduser}/{typefiltered}</t>
+  </si>
+  <si>
+    <t>api/user/count-invitation-business/{iduser}</t>
+  </si>
+  <si>
+    <t>api/user/commissions/{idrole}</t>
+  </si>
+  <si>
+    <t>FALLA EL API EN POSTMAN ERROR 500  "conexión rechazada"</t>
+  </si>
+  <si>
+    <t>FALLO EL API DEL POSTMAN ERROR 400</t>
+  </si>
+  <si>
+    <t>FALLO EL API DEL POSTMAN ERROR 400 "LOGUEASE CON SU CREDENCIALES"</t>
+  </si>
+  <si>
+    <t>FALLO EL API DEL POSTMAN ERROR 404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTA OK PERO EN LA
+BD 516 SEGÚN EL POSTMAN 510 COMO VALIDAR ESO </t>
+  </si>
+  <si>
+    <t>Virtual-Wallet</t>
+  </si>
+  <si>
+    <t>wallet-virtual/walletbyid/{id}</t>
+  </si>
+  <si>
+    <t>Virtual-wallet-controller</t>
+  </si>
+  <si>
+    <t>wallet-virtual/walletbyiduser/{iduser}</t>
+  </si>
+  <si>
+    <t>wallet-virtual/create-recharge</t>
+  </si>
+  <si>
+    <t>wallet-virtual/tranfers-bo</t>
+  </si>
+  <si>
+    <t>FALLO EL API DEL POSTMAN ERROR 500</t>
+  </si>
+  <si>
+    <t>wallet-virtual/withdraw</t>
   </si>
 </sst>
 </file>
@@ -458,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -479,15 +408,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -531,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -572,14 +492,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -593,53 +507,47 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -647,8 +555,26 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58EED25-7273-4055-B1C5-E5C25188C98C}">
-  <dimension ref="B2:G49"/>
+  <dimension ref="B2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -980,13 +906,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -1008,727 +934,584 @@
     </row>
     <row r="4" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="29" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="30"/>
-      <c r="C5" s="22" t="s">
-        <v>72</v>
+      <c r="C5" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
-      <c r="C6" s="22" t="s">
-        <v>72</v>
+      <c r="C6" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="30"/>
-      <c r="C7" s="22" t="s">
-        <v>72</v>
+      <c r="C7" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="30"/>
-      <c r="C8" s="22" t="s">
-        <v>72</v>
+      <c r="C8" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>82</v>
+        <v>7</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="30"/>
-      <c r="C9" s="22" t="s">
-        <v>72</v>
+      <c r="C9" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>84</v>
+        <v>7</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="30"/>
-      <c r="C10" s="22" t="s">
-        <v>72</v>
+      <c r="C10" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>80</v>
+        <v>7</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="30"/>
-      <c r="C11" s="22" t="s">
-        <v>72</v>
+      <c r="C11" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>80</v>
+        <v>7</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="30"/>
-      <c r="C12" s="22" t="s">
-        <v>72</v>
+      <c r="C12" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>80</v>
+        <v>7</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="31"/>
-      <c r="C13" s="22" t="s">
-        <v>72</v>
+      <c r="C13" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="7" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="39"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="7" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="26" t="s">
-        <v>101</v>
+      <c r="B18" s="28" t="s">
+        <v>40</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="26"/>
-      <c r="C19" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>102</v>
+      <c r="B19" s="28"/>
+      <c r="C19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="26"/>
-      <c r="C20" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>103</v>
+      <c r="B20" s="28"/>
+      <c r="C20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="26"/>
-      <c r="C21" s="23" t="s">
-        <v>100</v>
+      <c r="B21" s="28"/>
+      <c r="C21" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="27" t="s">
-        <v>9</v>
+      <c r="B22" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="27"/>
-      <c r="C23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="B23" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>13</v>
+      <c r="E23" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="F23" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="25"/>
+      <c r="C25" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="35" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="27"/>
-      <c r="C24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="13" t="s">
+      <c r="C26" s="17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="27"/>
-      <c r="C25" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="D26" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="27"/>
-      <c r="C26" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>60</v>
+      <c r="F26" s="17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="27"/>
-      <c r="C27" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>60</v>
+      <c r="B27" s="36"/>
+      <c r="C27" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="27"/>
-      <c r="C28" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>60</v>
+      <c r="B28" s="36"/>
+      <c r="C28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="27"/>
-      <c r="C29" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>61</v>
+      <c r="B29" s="36"/>
+      <c r="C29" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="27"/>
-      <c r="C30" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>62</v>
+      <c r="B30" s="36"/>
+      <c r="C30" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="27"/>
-      <c r="C31" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>25</v>
+      <c r="B31" s="36"/>
+      <c r="C31" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="36"/>
+      <c r="C32" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="28"/>
-      <c r="C33" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>12</v>
+      <c r="B33" s="36"/>
+      <c r="C33" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="28"/>
-      <c r="C34" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B35" s="28"/>
-      <c r="C35" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="15" t="s">
+      <c r="B34" s="36"/>
+      <c r="C34" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="37"/>
+      <c r="C35" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="40"/>
+      <c r="C37" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="40"/>
+      <c r="C38" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B36" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="35"/>
-      <c r="C37" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="35"/>
-      <c r="C38" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>38</v>
+      <c r="E38" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="35"/>
-      <c r="C39" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>38</v>
+      <c r="B39" s="40"/>
+      <c r="C39" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="35"/>
-      <c r="C40" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="17" t="s">
+      <c r="B40" s="41"/>
+      <c r="C40" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="36"/>
-      <c r="C42" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="32"/>
-      <c r="C44" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B45" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="34"/>
-      <c r="C46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="34"/>
-      <c r="C48" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="34"/>
-      <c r="C49" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>69</v>
+      <c r="E40" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B49"/>
+  <mergeCells count="7">
+    <mergeCell ref="B26:B35"/>
     <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B31"/>
-    <mergeCell ref="B32:B35"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="B14:B16"/>
   </mergeCells>
